--- a/tutorials/tutorial_05/sample.xlsx
+++ b/tutorials/tutorial_05/sample.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\PHP-Training\turtorials\turtorial_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\php_training\tutorials\tutorial_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{785F4242-8D5B-4378-BDCD-CBDBCE7772A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350AD348-D929-40AB-8692-4C7E5FD93746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{24316A60-CE1F-413D-B4EC-588C55DF5976}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{BFFFF934-44C5-4825-B90A-05DC22AC127D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -49,13 +41,52 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Job</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Mg Mg</t>
   </si>
   <si>
+    <t>Zaw Zaw</t>
+  </si>
+  <si>
+    <t>Ma Ma</t>
+  </si>
+  <si>
+    <t>Hla Hla</t>
+  </si>
+  <si>
+    <t>Oo Oo</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
     <t>Yangon</t>
+  </si>
+  <si>
+    <t>Mandalay</t>
+  </si>
+  <si>
+    <t>Bago</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>Nay Pyi Taw</t>
   </si>
 </sst>
 </file>
@@ -108,18 +139,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E7C4AEE-17D0-4FA0-960A-D1D635BDC36B}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{9E7C4AEE-17D0-4FA0-960A-D1D635BDC36B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0CC38DBC-74C8-4C64-8129-A1342485737A}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{20901B80-CDB0-496D-BF48-73CD988B11AC}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{52860866-15D9-43DF-8FF0-57F81D02B77A}" name="Column3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,19 +437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377BB12B-027B-4BC0-B321-B0A9D153F724}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FFCAA7-9C7B-4E15-81E8-1D433D39EE0A}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +454,82 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>